--- a/ceva.xlsx
+++ b/ceva.xlsx
@@ -21,7 +21,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>George Manole</t>
+    <t>Andrei Patrascu</t>
   </si>
   <si>
     <t>Gender</t>
@@ -949,13 +949,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>2</v>
